--- a/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/采购入库单模板.xlsx
+++ b/code/code/borui/app/企业版/MainProgram/bin/Debug/tdmb/采购入库单模板.xlsx
@@ -10,14 +10,14 @@
     <sheet name="单据模板" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">单据模板!$A$1:$K$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">单据模板!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>采购入库单</t>
   </si>
@@ -82,6 +82,10 @@
   <si>
     <t>供应商：[1]     单据编号：[2]     项目名称：[10]                               
 采购合同号：[11]     摘要：[12]     项目编号：[4]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -623,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -635,16 +639,16 @@
     <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="5.875" customWidth="1"/>
-    <col min="7" max="7" width="5.25" customWidth="1"/>
-    <col min="8" max="8" width="6.625" customWidth="1"/>
-    <col min="9" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="6.75" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="7" width="5.875" customWidth="1"/>
+    <col min="8" max="8" width="5.25" customWidth="1"/>
+    <col min="9" max="9" width="6.625" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="6.75" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.95" customHeight="1">
+    <row r="1" spans="1:12" ht="18.95" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -657,9 +661,10 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="12" customHeight="1">
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -672,9 +677,10 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="3" hidden="1" customHeight="1">
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="3" hidden="1" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -685,9 +691,10 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="21.95" customHeight="1">
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="21.95" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -698,9 +705,10 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -720,22 +728,25 @@
         <v>6</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.1" customHeight="1">
+    <row r="6" spans="1:12" ht="14.1" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -747,8 +758,9 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="14.1" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -760,8 +772,9 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" ht="14.1" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -773,8 +786,9 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="14.1" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -786,8 +800,9 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="14.1" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -799,8 +814,9 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="14.1" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -812,8 +828,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="14.1" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -825,8 +842,9 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="14.1" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -838,8 +856,9 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.1" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -851,8 +870,9 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.1" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -864,8 +884,9 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.1" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -877,8 +898,9 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.1" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -890,8 +912,9 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.1" customHeight="1">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.1" customHeight="1">
       <c r="A18" s="16" t="s">
         <v>12</v>
       </c>
@@ -900,21 +923,22 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="45" customHeight="1">
+    <row r="19" spans="1:12" ht="45" customHeight="1">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -928,14 +952,15 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" ht="12.95" customHeight="1"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A2:K4"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="A2:L4"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.196527777777778" right="0.70069444444444495" top="0.59027777777777801" bottom="0.196527777777778" header="0.297916666666667" footer="0.297916666666667"/>
